--- a/Python/resultados/HW_C019_120.xlsx
+++ b/Python/resultados/HW_C019_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.859375</v>
+        <v>27.86556592171642</v>
       </c>
       <c r="C2" t="n">
-        <v>28.875</v>
+        <v>28.88167433807014</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.890625</v>
+        <v>27.89314816732099</v>
       </c>
       <c r="C3" t="n">
-        <v>28.890625</v>
+        <v>28.88544476473718</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.890625</v>
+        <v>27.88777339169984</v>
       </c>
       <c r="C4" t="n">
-        <v>28.90625</v>
+        <v>28.90342015758691</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.875</v>
+        <v>27.87356436109086</v>
       </c>
       <c r="C5" t="n">
-        <v>28.859375</v>
+        <v>28.85832136261758</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.875</v>
+        <v>27.87101380393653</v>
       </c>
       <c r="C6" t="n">
-        <v>28.875</v>
+        <v>28.88077634761183</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.84375</v>
+        <v>27.84684309650138</v>
       </c>
       <c r="C7" t="n">
-        <v>28.875</v>
+        <v>28.87286763784935</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.859375</v>
+        <v>27.86665875623024</v>
       </c>
       <c r="C8" t="n">
-        <v>28.890625</v>
+        <v>28.89158522516483</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.859375</v>
+        <v>27.85289657898602</v>
       </c>
       <c r="C9" t="n">
-        <v>28.921875</v>
+        <v>28.91444071076244</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.875</v>
+        <v>27.86844424876679</v>
       </c>
       <c r="C10" t="n">
-        <v>28.890625</v>
+        <v>28.88450866179215</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.859375</v>
+        <v>27.86511721561606</v>
       </c>
       <c r="C11" t="n">
-        <v>28.875</v>
+        <v>28.87648556293106</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.875</v>
+        <v>27.86910255418651</v>
       </c>
       <c r="C12" t="n">
-        <v>28.890625</v>
+        <v>28.88495247691235</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.765625</v>
+        <v>19.76110814097889</v>
       </c>
       <c r="C2" t="n">
-        <v>25.15625</v>
+        <v>25.15513782666984</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.765625</v>
+        <v>19.76119084291836</v>
       </c>
       <c r="C3" t="n">
-        <v>25.1875</v>
+        <v>25.1880382976403</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.765625</v>
+        <v>19.76618412944767</v>
       </c>
       <c r="C4" t="n">
-        <v>25.25</v>
+        <v>25.07569095645501</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.734375</v>
+        <v>19.73913588460996</v>
       </c>
       <c r="C5" t="n">
-        <v>25.25</v>
+        <v>25.07451578196252</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.75</v>
+        <v>19.75397571247449</v>
       </c>
       <c r="C6" t="n">
-        <v>25.25</v>
+        <v>25.06910352329858</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.75</v>
+        <v>19.75419999468854</v>
       </c>
       <c r="C7" t="n">
-        <v>25.25</v>
+        <v>25.08150014794403</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.734375</v>
+        <v>19.74023001408807</v>
       </c>
       <c r="C8" t="n">
-        <v>25.25</v>
+        <v>25.06840370953961</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.75</v>
+        <v>19.75200249952362</v>
       </c>
       <c r="C9" t="n">
-        <v>25.28125</v>
+        <v>25.09617719895786</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.75</v>
+        <v>19.75256481012362</v>
       </c>
       <c r="C10" t="n">
-        <v>25.234375</v>
+        <v>25.05323524850856</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.765625</v>
+        <v>19.75863365551985</v>
       </c>
       <c r="C11" t="n">
-        <v>25.25</v>
+        <v>25.07353832102982</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.75</v>
+        <v>19.75392256843731</v>
       </c>
       <c r="C12" t="n">
-        <v>25.234375</v>
+        <v>25.09353410120061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.78599328414847</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20.31091138274269</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.7614917969002</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20.26855433782312</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.75489515597404</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.30142652972216</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.78516269221445</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.28609537042992</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.77403269556762</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.32449719411572</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.77679663735373</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.2978428933309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.76550662684715</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.2867802760757</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.76390061800428</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.30813913331753</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.76769493689635</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.29789265260527</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.78641939021353</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.28383041469881</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.77218938341198</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.29659701848618</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C019_120.xlsx
+++ b/Python/resultados/HW_C019_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>27.86556592171642</v>
+        <v>27.8187978278512</v>
       </c>
       <c r="C2" t="n">
-        <v>28.88167433807014</v>
+        <v>28.57271655009389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.89314816732099</v>
+        <v>27.84397970724693</v>
       </c>
       <c r="C3" t="n">
-        <v>28.88544476473718</v>
+        <v>28.57640606645103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.88777339169984</v>
+        <v>27.80539676323497</v>
       </c>
       <c r="C4" t="n">
-        <v>28.90342015758691</v>
+        <v>28.54546697135685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.87356436109086</v>
+        <v>27.82297592306</v>
       </c>
       <c r="C5" t="n">
-        <v>28.85832136261758</v>
+        <v>28.56299240347486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.87101380393653</v>
+        <v>27.8354225098857</v>
       </c>
       <c r="C6" t="n">
-        <v>28.88077634761183</v>
+        <v>28.58581980844269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.84684309650138</v>
+        <v>27.81040955362748</v>
       </c>
       <c r="C7" t="n">
-        <v>28.87286763784935</v>
+        <v>28.56310078290642</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.86665875623024</v>
+        <v>27.86156351606635</v>
       </c>
       <c r="C8" t="n">
-        <v>28.89158522516483</v>
+        <v>28.56819141537427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.85289657898602</v>
+        <v>27.80022297296503</v>
       </c>
       <c r="C9" t="n">
-        <v>28.91444071076244</v>
+        <v>28.55911095503167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.86844424876679</v>
+        <v>27.85644969396837</v>
       </c>
       <c r="C10" t="n">
-        <v>28.88450866179215</v>
+        <v>28.57217316597544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.86511721561606</v>
+        <v>27.82439059371321</v>
       </c>
       <c r="C11" t="n">
-        <v>28.87648556293106</v>
+        <v>28.58951576450293</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.86910255418651</v>
+        <v>27.82796090616192</v>
       </c>
       <c r="C12" t="n">
-        <v>28.88495247691235</v>
+        <v>28.569549388361</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.76110814097889</v>
+        <v>19.72936212069984</v>
       </c>
       <c r="C2" t="n">
-        <v>25.15513782666984</v>
+        <v>25.08057875576624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.76119084291836</v>
+        <v>19.74855385633919</v>
       </c>
       <c r="C3" t="n">
-        <v>25.1880382976403</v>
+        <v>25.0918863595157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.76618412944767</v>
+        <v>19.72051751290509</v>
       </c>
       <c r="C4" t="n">
-        <v>25.07569095645501</v>
+        <v>25.08626257521509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.73913588460996</v>
+        <v>19.74379053495597</v>
       </c>
       <c r="C5" t="n">
-        <v>25.07451578196252</v>
+        <v>25.05167107214245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.75397571247449</v>
+        <v>19.74566073564925</v>
       </c>
       <c r="C6" t="n">
-        <v>25.06910352329858</v>
+        <v>25.07339840203907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.75419999468854</v>
+        <v>19.73140618631875</v>
       </c>
       <c r="C7" t="n">
-        <v>25.08150014794403</v>
+        <v>25.08198151545008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.74023001408807</v>
+        <v>19.72768394373398</v>
       </c>
       <c r="C8" t="n">
-        <v>25.06840370953961</v>
+        <v>25.09057151668794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.75200249952362</v>
+        <v>19.72374773196849</v>
       </c>
       <c r="C9" t="n">
-        <v>25.09617719895786</v>
+        <v>25.07413790502166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.75256481012362</v>
+        <v>19.71064740330682</v>
       </c>
       <c r="C10" t="n">
-        <v>25.05323524850856</v>
+        <v>25.05608468275296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.75863365551985</v>
+        <v>19.75112047036913</v>
       </c>
       <c r="C11" t="n">
-        <v>25.07353832102982</v>
+        <v>25.09272692445177</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.75392256843731</v>
+        <v>19.73324904962465</v>
       </c>
       <c r="C12" t="n">
-        <v>25.09353410120061</v>
+        <v>25.0779299709043</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.78599328414847</v>
+        <v>14.67819158410424</v>
       </c>
       <c r="C2" t="n">
-        <v>20.31091138274269</v>
+        <v>20.14182173884474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.7614917969002</v>
+        <v>14.67184926604159</v>
       </c>
       <c r="C3" t="n">
-        <v>20.26855433782312</v>
+        <v>20.15149388658961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.75489515597404</v>
+        <v>14.66405295758777</v>
       </c>
       <c r="C4" t="n">
-        <v>20.30142652972216</v>
+        <v>20.16994143319047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.78516269221445</v>
+        <v>14.67252334041433</v>
       </c>
       <c r="C5" t="n">
-        <v>20.28609537042992</v>
+        <v>20.19408792556247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.77403269556762</v>
+        <v>14.6783063978622</v>
       </c>
       <c r="C6" t="n">
-        <v>20.32449719411572</v>
+        <v>20.1678816525956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.77679663735373</v>
+        <v>14.66222145325498</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2978428933309</v>
+        <v>20.17787938655982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.76550662684715</v>
+        <v>14.67102942094896</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2867802760757</v>
+        <v>20.15681267141502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.76390061800428</v>
+        <v>14.68480209579522</v>
       </c>
       <c r="C9" t="n">
-        <v>20.30813913331753</v>
+        <v>20.14666221504719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.76769493689635</v>
+        <v>14.67869558954255</v>
       </c>
       <c r="C10" t="n">
-        <v>20.29789265260527</v>
+        <v>20.15284212539778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.78641939021353</v>
+        <v>14.69907134584581</v>
       </c>
       <c r="C11" t="n">
-        <v>20.28383041469881</v>
+        <v>20.17954868207924</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.77218938341198</v>
+        <v>14.67607434513976</v>
       </c>
       <c r="C12" t="n">
-        <v>20.29659701848618</v>
+        <v>20.16389717172819</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C019_120.xlsx
+++ b/Python/resultados/HW_C019_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>28.57271655009389</v>
       </c>
+      <c r="D2" t="n">
+        <v>28.29130492301525</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>28.57640606645103</v>
       </c>
+      <c r="D3" t="n">
+        <v>28.30109429625282</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>28.54546697135685</v>
       </c>
+      <c r="D4" t="n">
+        <v>28.27092826008262</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>28.56299240347486</v>
       </c>
+      <c r="D5" t="n">
+        <v>28.2765251254109</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>28.58581980844269</v>
       </c>
+      <c r="D6" t="n">
+        <v>28.29813157041581</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>28.56310078290642</v>
       </c>
+      <c r="D7" t="n">
+        <v>28.2788236410168</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>28.56819141537427</v>
       </c>
+      <c r="D8" t="n">
+        <v>28.28139954648768</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>28.55911095503167</v>
       </c>
+      <c r="D9" t="n">
+        <v>28.26983917969464</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>28.57217316597544</v>
       </c>
+      <c r="D10" t="n">
+        <v>28.28336136120372</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>28.58951576450293</v>
       </c>
+      <c r="D11" t="n">
+        <v>28.30663612781745</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>28.569549388361</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28.28580440313977</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>25.08057875576624</v>
       </c>
+      <c r="D2" t="n">
+        <v>24.28720050310222</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>25.0918863595157</v>
       </c>
+      <c r="D3" t="n">
+        <v>24.2909054078498</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>25.08626257521509</v>
       </c>
+      <c r="D4" t="n">
+        <v>24.29709059506843</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>25.05167107214245</v>
       </c>
+      <c r="D5" t="n">
+        <v>24.27724381829357</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>25.07339840203907</v>
       </c>
+      <c r="D6" t="n">
+        <v>24.28127687944857</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>25.08198151545008</v>
       </c>
+      <c r="D7" t="n">
+        <v>24.30310306730529</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>25.09057151668794</v>
       </c>
+      <c r="D8" t="n">
+        <v>24.28054844875673</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>25.07413790502166</v>
       </c>
+      <c r="D9" t="n">
+        <v>24.29601607956247</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>25.05608468275296</v>
       </c>
+      <c r="D10" t="n">
+        <v>24.26699705167706</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>25.09272692445177</v>
       </c>
+      <c r="D11" t="n">
+        <v>24.29914184102936</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>25.0779299709043</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24.28795236920935</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>20.14182173884474</v>
       </c>
+      <c r="D2" t="n">
+        <v>18.90197496816027</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>20.15149388658961</v>
       </c>
+      <c r="D3" t="n">
+        <v>18.92361694485958</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>20.16994143319047</v>
       </c>
+      <c r="D4" t="n">
+        <v>18.92563882650008</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>20.19408792556247</v>
       </c>
+      <c r="D5" t="n">
+        <v>18.94025283765949</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>20.1678816525956</v>
       </c>
+      <c r="D6" t="n">
+        <v>18.94308833477993</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>20.17787938655982</v>
       </c>
+      <c r="D7" t="n">
+        <v>18.93516110646111</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>20.15681267141502</v>
       </c>
+      <c r="D8" t="n">
+        <v>18.9255911229658</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>20.14666221504719</v>
       </c>
+      <c r="D9" t="n">
+        <v>18.91431139748023</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>20.15284212539778</v>
       </c>
+      <c r="D10" t="n">
+        <v>18.92684664744779</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>20.17954868207924</v>
       </c>
+      <c r="D11" t="n">
+        <v>18.94961824144207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>20.16389717172819</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18.92861004277563</v>
       </c>
     </row>
   </sheetData>
